--- a/data/DataGeneration_6_2024.xlsx
+++ b/data/DataGeneration_6_2024.xlsx
@@ -2048,7 +2048,7 @@
         <v/>
       </c>
       <c r="O8" s="1" t="n">
-        <v/>
+        <v>0.7</v>
       </c>
       <c r="P8" s="1" t="n">
         <v/>
@@ -2060,7 +2060,7 @@
         <v/>
       </c>
       <c r="S8" s="1" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="T8" s="1" t="n">
         <v/>
@@ -2069,7 +2069,7 @@
         <v/>
       </c>
       <c r="V8" s="1" t="n">
-        <v/>
+        <v>24.4</v>
       </c>
       <c r="W8" s="1" t="n">
         <v/>
@@ -2090,7 +2090,7 @@
         <v/>
       </c>
       <c r="AC8" s="1" t="n">
-        <v/>
+        <v>3.7</v>
       </c>
       <c r="AD8" s="1" t="n">
         <v/>
@@ -2168,7 +2168,7 @@
         <v/>
       </c>
       <c r="BC8" s="1" t="n">
-        <v/>
+        <v>20</v>
       </c>
       <c r="BD8" s="1" t="n">
         <v/>
@@ -2180,10 +2180,10 @@
         <v/>
       </c>
       <c r="BG8" s="1" t="n">
-        <v/>
+        <v>3.7</v>
       </c>
       <c r="BH8" s="1" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="BI8" s="1" t="n"/>
       <c r="BJ8" s="1" t="n"/>
